--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Entry</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>RRPRS…PPRS</t>
+  </si>
+  <si>
+    <t>R_next</t>
+  </si>
+  <si>
+    <t>PPRS</t>
+  </si>
+  <si>
+    <t>P_next</t>
+  </si>
+  <si>
+    <t>S_next</t>
+  </si>
+  <si>
+    <t>Time_from_prev</t>
   </si>
 </sst>
 </file>
@@ -444,19 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -493,8 +517,11 @@
       <c r="L1" t="s">
         <v>7</v>
       </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -502,7 +529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -531,13 +558,25 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -556,8 +595,35 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>288</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -577,12 +643,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4</v>
       </c>
